--- a/va_facility_data_2025-02-20/Birmingham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Birmingham%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Birmingham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Birmingham%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc3078b0e7fa54ac58a1251e44de2aa98"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra2793abf8ded41329990a66805dfb363"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1f79bf93fa52475fb6030e4a63a8a039"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6a273b2a513046d78f14725ba21b501a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7ce1f311383e43ebb7e6c23273d90b28"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4f762da73f344fd4ac8acb4ff2f3b514"/>
   </x:sheets>
 </x:workbook>
 </file>
